--- a/Planilla de costos.xlsx
+++ b/Planilla de costos.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,318 +26,317 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
-    <t xml:space="preserve">Planilla de Costos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costos Directos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costos Indirectos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sueldo mensual estimado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo anual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Anual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Mensual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Diario</t>
+    <t>Planilla de Costos</t>
+  </si>
+  <si>
+    <t>Costos Directos</t>
+  </si>
+  <si>
+    <t>Costos Indirectos</t>
+  </si>
+  <si>
+    <t>Total General</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Sueldo mensual estimado</t>
+  </si>
+  <si>
+    <t>Costo anual</t>
+  </si>
+  <si>
+    <t>Rubro</t>
+  </si>
+  <si>
+    <t>Costo Anual</t>
+  </si>
+  <si>
+    <t>Costo Mensual</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Costo Diario</t>
   </si>
   <si>
     <t xml:space="preserve">Monotributo?? </t>
   </si>
   <si>
-    <t xml:space="preserve">Si el empleado es socio, se factura el monotributo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jefe de Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Oficina</t>
+    <t>Si el empleado es socio, se factura el monotributo</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto</t>
+  </si>
+  <si>
+    <t>1. Oficina</t>
   </si>
   <si>
     <t xml:space="preserve">Costos Directos </t>
   </si>
   <si>
-    <t xml:space="preserve">Si es empleado, aporte jubilatorio , obra social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se saca un poco del empleador y del empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitecto de Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alquiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina pequeña para 8 personas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para socio (jefe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DevOps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expensas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El jefe de proyecto va a ser dueño (tiene costo por uso: cada vez q lo asigno se cobra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollador Full Stack 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicios (agua, luz, gas, limpieza)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promedio anualizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 monotributo en la tabla de costo por el jefe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollador Full Stack 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet corporativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibra óptica + respaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollador Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfonos y comunicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vamos a asumir que en tasa estandar esta contado el aporte/obra social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analista Junior 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impuestos y tasas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluye inmobiliario y tasas municipales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N Seguros de vida (costo fijo por cada recurso)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analista Junior 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal Oficina</t>
+    <t>Si es empleado, aporte jubilatorio , obra social</t>
+  </si>
+  <si>
+    <t>Se saca un poco del empleador y del empleado</t>
+  </si>
+  <si>
+    <t>Arquitecto de Software</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>Oficina pequeña para 8 personas</t>
+  </si>
+  <si>
+    <t>Para socio (jefe)</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Expensas</t>
+  </si>
+  <si>
+    <t>El jefe de proyecto va a ser dueño (tiene costo por uso: cada vez q lo asigno se cobra)</t>
+  </si>
+  <si>
+    <t>Desarrollador Full Stack 1</t>
+  </si>
+  <si>
+    <t>Servicios (agua, luz, gas, limpieza)</t>
+  </si>
+  <si>
+    <t>Promedio anualizado</t>
+  </si>
+  <si>
+    <t>1 monotributo en la tabla de costo por el jefe</t>
+  </si>
+  <si>
+    <t>Desarrollador Full Stack 2</t>
+  </si>
+  <si>
+    <t>Internet corporativo</t>
+  </si>
+  <si>
+    <t>Fibra óptica + respaldo</t>
+  </si>
+  <si>
+    <t>Para empleado</t>
+  </si>
+  <si>
+    <t>Desarrollador Backend</t>
+  </si>
+  <si>
+    <t>Teléfonos y comunicaciones</t>
+  </si>
+  <si>
+    <t>Vamos a asumir que en tasa estandar esta contado el aporte/obra social</t>
+  </si>
+  <si>
+    <t>Analista Junior 1</t>
+  </si>
+  <si>
+    <t>Impuestos y tasas</t>
+  </si>
+  <si>
+    <t>Incluye inmobiliario y tasas municipales</t>
+  </si>
+  <si>
+    <t>N Seguros de vida (costo fijo por cada recurso)</t>
+  </si>
+  <si>
+    <t>Analista Junior 2</t>
+  </si>
+  <si>
+    <t>Subtotal Oficina</t>
   </si>
   <si>
     <t xml:space="preserve">1 Seguro contra robo /incendio </t>
   </si>
   <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Equipamiento y Amortización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa estandar por cada empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC y monitores (8 puestos × $500.000) amort. 3 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$4.000.000 / 3 = $1.333.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servidores y dispositivos (3 años)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amortizacion</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2. Equipamiento y Amortización</t>
+  </si>
+  <si>
+    <t>Tasa estandar por cada empleado</t>
+  </si>
+  <si>
+    <t>PC y monitores (8 puestos × $500.000) amort. 3 años</t>
+  </si>
+  <si>
+    <t>$4.000.000 / 3 = $1.333.000</t>
+  </si>
+  <si>
+    <t>Servidores y dispositivos (3 años)</t>
+  </si>
+  <si>
+    <t>Amortizacion</t>
   </si>
   <si>
     <t xml:space="preserve">O alquilo o amortizo </t>
   </si>
   <si>
-    <t xml:space="preserve">el resultado es anual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eso /12 da mensual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muebles y sillas (10 años)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software licencias (GitHub, JetBrains, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poner unos pesos para los utiles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtotal Equipamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinta, cartuchos, toner, papel, fibrones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Transporte y movilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transporte urbano y viajes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando es propio de la empresa es amortización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Gastos profesionales y seguros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No hay matricula para informaticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguro de vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total para los 8 empleados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suscripcion tecnica no va</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa estándar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aporte jubilatorio / obra social total para los 8 empleados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguro contra robos/incendios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el costo fijo mensual lo divido entre 30 y obtengo el costo fijo diario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monotributo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para el jefe del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ese costo lo multiplico por la duracion total del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aportes contables, matrícula, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eso nos da el costo fijo del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacitación, cursos, conferencias</t>
+    <t>el resultado es anual</t>
+  </si>
+  <si>
+    <t>Eso /12 da mensual</t>
+  </si>
+  <si>
+    <t>Muebles y sillas (10 años)</t>
+  </si>
+  <si>
+    <t>Software licencias (GitHub, JetBrains, etc.)</t>
+  </si>
+  <si>
+    <t>Utiles</t>
+  </si>
+  <si>
+    <t>Poner unos pesos para los utiles</t>
+  </si>
+  <si>
+    <t>Subtotal Equipamiento</t>
+  </si>
+  <si>
+    <t>tinta, cartuchos, toner, papel, fibrones</t>
+  </si>
+  <si>
+    <t>3. Transporte y movilidad</t>
+  </si>
+  <si>
+    <t>Transporte urbano y viajes</t>
+  </si>
+  <si>
+    <t>Cuando es propio de la empresa es amortización</t>
+  </si>
+  <si>
+    <t>4. Gastos profesionales y seguros</t>
+  </si>
+  <si>
+    <t>No hay matricula para informaticos</t>
+  </si>
+  <si>
+    <t>Seguro de vida</t>
+  </si>
+  <si>
+    <t>Total para los 8 empleados</t>
+  </si>
+  <si>
+    <t>Suscripcion tecnica no va</t>
+  </si>
+  <si>
+    <t>Tasa estándar</t>
+  </si>
+  <si>
+    <t>Aporte jubilatorio / obra social total para los 8 empleados</t>
+  </si>
+  <si>
+    <t>Seguro contra robos/incendios</t>
+  </si>
+  <si>
+    <t>el costo fijo mensual lo divido entre 30 y obtengo el costo fijo diario</t>
+  </si>
+  <si>
+    <t>Monotributo</t>
+  </si>
+  <si>
+    <t>Para el jefe del proyecto</t>
+  </si>
+  <si>
+    <t>ese costo lo multiplico por la duracion total del proyecto</t>
+  </si>
+  <si>
+    <t>Aportes contables, matrícula, etc.</t>
+  </si>
+  <si>
+    <t>eso nos da el costo fijo del proyecto</t>
+  </si>
+  <si>
+    <t>Capacitación, cursos, conferencias</t>
   </si>
   <si>
     <t xml:space="preserve">ponemos ese valor en la tabla de costos del proyect, </t>
   </si>
   <si>
-    <t xml:space="preserve">Subtotal profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en la primer tarea resumen (Nombre del proyecto), en la celda Costos fijos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL COSTOS INDIRECTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como hace para calcular el costo variable? Tiene en cuenta el costo de cada recurso humano o material y la duracion de la tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabla de costos del project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejecucion…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Fijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Previsto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo Restante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(costo calculado arriba)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(costo planificado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(cambiará en ejec)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(igual al costo total)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 (pq no ejecute)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(costo total, pq me falta ejecutar todo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(en ejec: dif entre planif y ejecut)</t>
+    <t>Subtotal profesional</t>
+  </si>
+  <si>
+    <t>en la primer tarea resumen (Nombre del proyecto), en la celda Costos fijos</t>
+  </si>
+  <si>
+    <t>TOTAL COSTOS INDIRECTOS</t>
+  </si>
+  <si>
+    <t>Como hace para calcular el costo variable? Tiene en cuenta el costo de cada recurso humano o material y la duracion de la tarea</t>
+  </si>
+  <si>
+    <t>Tabla de costos del project</t>
+  </si>
+  <si>
+    <t>Ejecucion…</t>
+  </si>
+  <si>
+    <t>Nombre tarea</t>
+  </si>
+  <si>
+    <t>Costo Fijo</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Costo Previsto</t>
+  </si>
+  <si>
+    <t>Variacion</t>
+  </si>
+  <si>
+    <t>Costo Real</t>
+  </si>
+  <si>
+    <t>Costo Restante</t>
+  </si>
+  <si>
+    <t>(costo calculado arriba)</t>
+  </si>
+  <si>
+    <t>(costo planificado)</t>
+  </si>
+  <si>
+    <t>(cambiará en ejec)</t>
+  </si>
+  <si>
+    <t>(igual al costo total)</t>
+  </si>
+  <si>
+    <t>0 (pq no ejecute)</t>
+  </si>
+  <si>
+    <t>(costo total, pq me falta ejecutar todo)</t>
+  </si>
+  <si>
+    <t>(en ejec: dif entre planif y ejecut)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;$ &quot;* #,##0.00_-;&quot;-$ &quot;* #,##0.00_-;_-&quot;$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,22 +345,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -365,9 +353,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -382,7 +384,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -390,112 +392,149 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2" displayName="Tabla2" ref="A3:C12" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="A3:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2" displayName="Tabla2" ref="A3:C12" totalsRowCount="1">
+  <autoFilter ref="A3:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Cargo"/>
-    <tableColumn id="2" name="Sueldo mensual estimado" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="Costo anual" totalsRowFunction="sum"/>
+    <tableColumn id="1" name="Cargo" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Sueldo mensual estimado" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="Costo anual" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla4" displayName="Tabla4" ref="E3:H28" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla4" displayName="Tabla4" ref="E3:H28" totalsRowShown="0">
   <autoFilter ref="E3:H28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Rubro"/>
@@ -503,70 +542,72 @@
     <tableColumn id="3" name="Costo Mensual"/>
     <tableColumn id="4" name="Observaciones"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla5" displayName="Tabla5" ref="J3:M6" headerRowCount="1" totalsRowCount="1" totalsRowShown="1">
-  <autoFilter ref="J3:M6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla5" displayName="Tabla5" ref="J3:M6" totalsRowCount="1">
+  <autoFilter ref="J3:M5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Categoría"/>
+    <tableColumn id="1" name="Categoría" totalsRowLabel="Total General"/>
     <tableColumn id="2" name="Costo Anual" totalsRowFunction="sum"/>
     <tableColumn id="3" name="Costo Mensual" totalsRowFunction="sum"/>
     <tableColumn id="4" name="Costo Diario" totalsRowFunction="sum"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -598,7 +639,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -622,7 +663,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -682,67 +723,66 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T28" activeCellId="0" sqref="T28"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="13.36"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -783,15 +823,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="10">
         <v>800000</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <f aca="false">B4*12</f>
+      <c r="C4" s="10">
+        <f t="shared" ref="C4:C11" si="0">B4*12</f>
         <v>9600000</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -803,17 +843,17 @@
       <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <f aca="false">Tabla2[[#Totals],[Costo anual]]</f>
+      <c r="K4" s="4">
+        <f>Tabla2[[#Totals],[Costo anual]]</f>
         <v>98400000</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <f aca="false">Tabla5[[#This Row],[Costo Anual]]/12</f>
+      <c r="L4" s="4">
+        <f>Tabla5[[#This Row],[Costo Anual]]/12</f>
         <v>8200000</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <f aca="false">Tabla5[[#This Row],[Costo Mensual]]/30</f>
-        <v>273333.333333333</v>
+      <c r="M4" s="4">
+        <f>Tabla5[[#This Row],[Costo Mensual]]/30</f>
+        <v>273333.33333333331</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>19</v>
@@ -822,25 +862,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="10">
         <v>1400000</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">B5*12</f>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
         <v>16800000</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">G5*12</f>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F10" si="1">G5*12</f>
         <v>7200000</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="4">
         <v>600000</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -849,82 +889,82 @@
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <f aca="false">F28</f>
+      <c r="K5" s="4">
+        <f>F28</f>
         <v>9093000</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <f aca="false">Tabla5[[#This Row],[Costo Anual]]/12</f>
+      <c r="L5" s="4">
+        <f>Tabla5[[#This Row],[Costo Anual]]/12</f>
         <v>757750</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <f aca="false">Tabla5[[#This Row],[Costo Mensual]]/30</f>
-        <v>25258.3333333333</v>
+      <c r="M5" s="4">
+        <f>Tabla5[[#This Row],[Costo Mensual]]/30</f>
+        <v>25258.333333333332</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="10">
         <v>1200000</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <f aca="false">B6*12</f>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
         <v>14400000</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false">G6*12</f>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="4">
         <v>100000</v>
       </c>
       <c r="H6" s="3"/>
       <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6" t="n">
-        <f aca="false">SUBTOTAL(109,Tabla5[Costo Anual])</f>
+      <c r="K6" s="6">
+        <f>SUBTOTAL(109,Tabla5[Costo Anual])</f>
         <v>107493000</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <f aca="false">SUBTOTAL(109,Tabla5[Costo Mensual])</f>
+      <c r="L6" s="6">
+        <f>SUBTOTAL(109,Tabla5[Costo Mensual])</f>
         <v>8957750</v>
       </c>
-      <c r="M6" s="6" t="n">
-        <f aca="false">SUBTOTAL(109,Tabla5[Costo Diario])</f>
-        <v>298591.666666667</v>
+      <c r="M6" s="6">
+        <f>SUBTOTAL(109,Tabla5[Costo Diario])</f>
+        <v>298591.66666666663</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="10">
         <v>1100000</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <f aca="false">B7*12</f>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false">G7*12</f>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="4">
         <v>50000</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -934,25 +974,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="10">
         <v>1100000</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <f aca="false">B8*12</f>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">G8*12</f>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>360000</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="4">
         <v>30000</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -962,25 +1002,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="10">
         <v>1000000</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <f aca="false">B9*12</f>
+      <c r="C9" s="10">
+        <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">G9*12</f>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>240000</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="4">
         <v>20000</v>
       </c>
       <c r="H9" s="3"/>
@@ -988,25 +1028,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="10">
         <v>800000</v>
       </c>
-      <c r="C10" s="4" t="n">
-        <f aca="false">B10*12</f>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false">G10*12</f>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="4">
         <v>15000</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1016,24 +1056,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="10">
         <v>800000</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <f aca="false">B11*12</f>
+      <c r="C11" s="10">
+        <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="7">
         <v>4380000</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="7">
         <v>365000</v>
       </c>
       <c r="H11" s="3"/>
@@ -1041,16 +1081,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="6" t="n">
-        <f aca="false">SUBTOTAL(109,Tabla2[Sueldo mensual estimado])</f>
+      <c r="B12" s="12">
+        <f>SUBTOTAL(109,Tabla2[Sueldo mensual estimado])</f>
         <v>8200000</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <f aca="false">SUBTOTAL(109,Tabla2[Costo anual])</f>
+      <c r="C12" s="12">
+        <f>SUBTOTAL(109,Tabla2[Costo anual])</f>
         <v>98400000</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -1063,30 +1103,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>1333000</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <f aca="false">F13/12</f>
-        <v>111083.333333333</v>
+      <c r="G13" s="4">
+        <f>F13/12</f>
+        <v>111083.33333333333</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <f aca="false">G14*12</f>
+      <c r="F14" s="4">
+        <f>G14*12</f>
         <v>396000</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="4">
         <v>33000</v>
       </c>
       <c r="H14" s="3"/>
@@ -1103,28 +1143,28 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false">G15*12</f>
+      <c r="F15" s="4">
+        <f>G15*12</f>
         <v>180000</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="4">
         <v>15000</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <f aca="false">G16*12</f>
+      <c r="F16" s="4">
+        <f>G16*12</f>
         <v>960000</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="4">
         <v>80000</v>
       </c>
       <c r="H16" s="3"/>
@@ -1135,14 +1175,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="5:21" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="7">
         <v>2873000</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="7">
         <v>239000</v>
       </c>
       <c r="H17" s="3"/>
@@ -1150,7 +1190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="5:21" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="5" t="s">
         <v>62</v>
       </c>
@@ -1158,15 +1198,15 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="5:21" ht="30" x14ac:dyDescent="0.25">
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="4" t="n">
-        <f aca="false">G19*12</f>
+      <c r="F19" s="4">
+        <f>G19*12</f>
         <v>996000</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="4">
         <v>83000</v>
       </c>
       <c r="H19" s="3"/>
@@ -1174,7 +1214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="5:21" ht="45" x14ac:dyDescent="0.25">
       <c r="E20" s="5" t="s">
         <v>65</v>
       </c>
@@ -1185,7 +1225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
@@ -1198,7 +1238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="5:21" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
@@ -1208,7 +1248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="5:21" ht="30" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
@@ -1220,7 +1260,7 @@
       </c>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E24" s="3" t="s">
         <v>74</v>
       </c>
@@ -1233,14 +1273,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="5:21" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="4">
         <v>120000</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="4">
         <v>10000</v>
       </c>
       <c r="H25" s="3"/>
@@ -1248,14 +1288,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="5:21" ht="45" x14ac:dyDescent="0.25">
       <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="4">
         <v>480000</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="4">
         <v>40000</v>
       </c>
       <c r="H26" s="3"/>
@@ -1263,14 +1303,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="5:21" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="7">
         <v>840000</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="7">
         <v>70000</v>
       </c>
       <c r="H27" s="3"/>
@@ -1278,92 +1318,87 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="5:21" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="7">
         <v>9093000</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="7">
         <v>757000</v>
       </c>
       <c r="H28" s="3"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O29" s="0" t="s">
+    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O31" s="0" t="s">
+    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
         <v>85</v>
       </c>
-      <c r="T31" s="0" t="s">
+      <c r="T31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O32" s="0" t="s">
+    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
         <v>87</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="P32" t="s">
         <v>88</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="Q32" t="s">
         <v>89</v>
       </c>
-      <c r="R32" s="0" t="s">
+      <c r="R32" t="s">
         <v>90</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" t="s">
         <v>91</v>
       </c>
-      <c r="T32" s="0" t="s">
+      <c r="T32" t="s">
         <v>92</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="U32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P33" s="0" t="s">
+    <row r="33" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
         <v>94</v>
       </c>
-      <c r="Q33" s="0" t="s">
+      <c r="Q33" t="s">
         <v>95</v>
       </c>
-      <c r="R33" s="0" t="s">
+      <c r="R33" t="s">
         <v>96</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" t="s">
         <v>97</v>
       </c>
-      <c r="T33" s="0" t="s">
+      <c r="T33" t="s">
         <v>98</v>
       </c>
-      <c r="U33" s="0" t="s">
+      <c r="U33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S34" s="0" t="s">
+    <row r="34" spans="16:21" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>